--- a/data/TestCase.xlsx
+++ b/data/TestCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Check Point</t>
   </si>
@@ -38,18 +38,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>No</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"email":"${randomEmail}","password":"password"}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Request Method</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -106,6 +94,32 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>{
+ "platformcode": "31Meeting",
+ "openid": "o4hoAt7ZCSuFuG1Knk-E7_WZ1Cu0",
+ "unionid": "oQTVut7LH053JZdVJUdGwA5dwGM0",
+ "actioncode": "meetingsignin",
+ "memo": {
+  "id": 425386011,
+  "title": "9999999999999999",
+  "category": "其他",
+  "thumb": "http://file.31huiyi.com/Uploads/neweventLogos/504.jpg",
+  "startDate": "2018-07-13",
+  "endDate": "2018-07-13",
+  "address": "",
+  "url": "https://event.3188.la425386011",
+  "attendTime": "2018-06-15T13:29:02.585482+08:00"
+ }</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5</t>
+  </si>
+  <si>
+    <t>http://shop.999.com.cn/999shop/setAction</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -747,8 +761,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1072,11 +1086,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C2:C5"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1086,7 +1100,7 @@
     <col min="3" max="3" width="40.5" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.75" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
@@ -1101,31 +1115,31 @@
   <sheetData>
     <row r="1" spans="1:18" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
@@ -1134,49 +1148,51 @@
         <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1">
         <v>200</v>
@@ -1189,80 +1205,23 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="1">
-        <v>200</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="1">
-        <v>200</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D510">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D508">
       <formula1>"POST,GET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J510">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J508">
       <formula1>"No,MD5,DES"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Form,Data,File,Json"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/TestCase.xlsx
+++ b/data/TestCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pyproject\python-unittest-requests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Project_Python\python-unittest-requests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,20 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Check Point</t>
   </si>
   <si>
-    <t>注册</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -93,33 +91,76 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>{
- "platformcode": "31Meeting",
- "openid": "o4hoAt7ZCSuFuG1Knk-E7_WZ1Cu0",
- "unionid": "oQTVut7LH053JZdVJUdGwA5dwGM0",
- "actioncode": "meetingsignin",
- "memo": {
-  "id": 425386011,
-  "title": "9999999999999999",
-  "category": "其他",
-  "thumb": "http://file.31huiyi.com/Uploads/neweventLogos/504.jpg",
-  "startDate": "2018-07-13",
-  "endDate": "2018-07-13",
-  "address": "",
-  "url": "https://event.3188.la425386011",
-  "attendTime": "2018-06-15T13:29:02.585482+08:00"
- }</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MD5</t>
-  </si>
-  <si>
-    <t>http://shop.999.com.cn/999shop/setAction</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Json</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>获取豆瓣电影</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口说明</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方法</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口请求url</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求数据类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求数据内容</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据是否需要编码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://movie.douban.com/j/search_tags</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'type':'movie','source':}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://httpbin.org/post</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST无参数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>183.234.57.139</t>
   </si>
 </sst>
 </file>
@@ -761,8 +802,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1086,132 +1127,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="48.75" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="6" max="6" width="48.7265625" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.453125" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="42" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1">
-        <v>200</v>
-      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D508">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D504">
       <formula1>"POST,GET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J508">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G504">
       <formula1>"No,MD5,DES"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -1224,4 +1267,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
+      <formula1>"Form,Data,File,Json"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>